--- a/artfynd/A 66895-2018.xlsx
+++ b/artfynd/A 66895-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>76178739</v>
+        <v>107919431</v>
       </c>
       <c r="B2" t="n">
-        <v>100515</v>
+        <v>56411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,49 +692,51 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>223246</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>bobygge</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Ormpussen SV om, Dlr</t>
+          <t>Oxberg, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>523249.1319481146</v>
+        <v>523808.8518078153</v>
       </c>
       <c r="R2" t="n">
-        <v>6692034.778844431</v>
+        <v>6692074.516626382</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -758,22 +760,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-07-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-07-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,7 +784,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -801,7 +802,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107919431</v>
+        <v>110430326</v>
       </c>
       <c r="B3" t="n">
         <v>56411</v>
@@ -834,30 +835,21 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>bobygge</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Oxberg, Dlr</t>
+          <t>Ormpussen (Ormpussen), Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>523808.8518078153</v>
+        <v>523845.1748384983</v>
       </c>
       <c r="R3" t="n">
-        <v>6692074.516626382</v>
+        <v>6692051.996645498</v>
       </c>
       <c r="S3" t="n">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -881,22 +873,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -923,10 +915,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110430326</v>
+        <v>76178739</v>
       </c>
       <c r="B4" t="n">
-        <v>56411</v>
+        <v>100515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -935,42 +927,49 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>223246</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Huds.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Ormpussen (Ormpussen), Dlr</t>
+          <t>Ormpussen SV om, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>523845.1748384983</v>
+        <v>523249.1319481146</v>
       </c>
       <c r="R4" t="n">
-        <v>6692051.996645498</v>
+        <v>6692034.778844431</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -994,22 +993,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2018-07-05</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2018-07-05</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1018,6 +1017,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 66895-2018.xlsx
+++ b/artfynd/A 66895-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>107919431</v>
+        <v>76178739</v>
       </c>
       <c r="B2" t="n">
-        <v>56411</v>
+        <v>100515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,51 +692,49 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>223246</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>bobygge</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Oxberg, Dlr</t>
+          <t>Ormpussen SV om, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>523808.8518078153</v>
+        <v>523249.1319481146</v>
       </c>
       <c r="R2" t="n">
-        <v>6692074.516626382</v>
+        <v>6692034.778844431</v>
       </c>
       <c r="S2" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -760,22 +758,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2018-07-05</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2018-07-05</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -784,6 +782,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -802,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110430326</v>
+        <v>107919431</v>
       </c>
       <c r="B3" t="n">
         <v>56411</v>
@@ -835,21 +834,30 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>bobygge</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Ormpussen (Ormpussen), Dlr</t>
+          <t>Oxberg, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>523845.1748384983</v>
+        <v>523808.8518078153</v>
       </c>
       <c r="R3" t="n">
-        <v>6692051.996645498</v>
+        <v>6692074.516626382</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -873,22 +881,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -915,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>76178739</v>
+        <v>110430326</v>
       </c>
       <c r="B4" t="n">
-        <v>100515</v>
+        <v>56411</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,49 +935,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>223246</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Huds.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Ormpussen SV om, Dlr</t>
+          <t>Ormpussen (Ormpussen), Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>523249.1319481146</v>
+        <v>523845.1748384983</v>
       </c>
       <c r="R4" t="n">
-        <v>6692034.778844431</v>
+        <v>6692051.996645498</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -993,22 +994,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2018-07-05</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2018-07-05</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1017,7 +1018,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
